--- a/Code/Results/Cases/Case_7_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_18/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.86580893073653</v>
+        <v>14.51054232755054</v>
       </c>
       <c r="C2">
-        <v>10.74432227013128</v>
+        <v>6.463130992475495</v>
       </c>
       <c r="D2">
-        <v>2.637920693838845</v>
+        <v>5.308075140429913</v>
       </c>
       <c r="E2">
-        <v>6.300423458666844</v>
+        <v>7.822087223541336</v>
       </c>
       <c r="F2">
-        <v>35.92407411708309</v>
+        <v>25.36693746863732</v>
       </c>
       <c r="G2">
-        <v>2.12789682719404</v>
+        <v>2.122995990433311</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.812000761957145</v>
+        <v>5.930814282741357</v>
       </c>
       <c r="K2">
-        <v>17.92965508158748</v>
+        <v>10.87627351401391</v>
       </c>
       <c r="L2">
-        <v>7.362728818597783</v>
+        <v>6.66307303321404</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.30589137799242</v>
+        <v>13.82627263071378</v>
       </c>
       <c r="O2">
-        <v>26.9919090136583</v>
+        <v>18.98296140429413</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.585806948773</v>
+        <v>13.69018962701759</v>
       </c>
       <c r="C3">
-        <v>10.01496787502055</v>
+        <v>6.389589980720063</v>
       </c>
       <c r="D3">
-        <v>2.596757141351026</v>
+        <v>5.135854737346012</v>
       </c>
       <c r="E3">
-        <v>6.317270752929484</v>
+        <v>7.771608027508865</v>
       </c>
       <c r="F3">
-        <v>35.16158630788127</v>
+        <v>25.21491604402831</v>
       </c>
       <c r="G3">
-        <v>2.137091251282589</v>
+        <v>2.12771335482707</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.862858628993523</v>
+        <v>5.972158889405925</v>
       </c>
       <c r="K3">
-        <v>16.9268368947283</v>
+        <v>10.17837895441978</v>
       </c>
       <c r="L3">
-        <v>7.21306536911413</v>
+        <v>6.540035474170214</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.5593718932585</v>
+        <v>14.0274697552342</v>
       </c>
       <c r="O3">
-        <v>26.51826504898488</v>
+        <v>19.00415283328705</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.77569726511225</v>
+        <v>13.16539366850774</v>
       </c>
       <c r="C4">
-        <v>9.543475272041704</v>
+        <v>6.344130590267927</v>
       </c>
       <c r="D4">
-        <v>2.571725438182944</v>
+        <v>5.029005896701917</v>
       </c>
       <c r="E4">
-        <v>6.329480905313455</v>
+        <v>7.743656599456131</v>
       </c>
       <c r="F4">
-        <v>34.71778273455042</v>
+        <v>25.13844302570683</v>
       </c>
       <c r="G4">
-        <v>2.142885693437289</v>
+        <v>2.130706117903987</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.895340721111659</v>
+        <v>5.998932255104891</v>
       </c>
       <c r="K4">
-        <v>16.29219266547298</v>
+        <v>9.725176701406614</v>
       </c>
       <c r="L4">
-        <v>7.123519214822672</v>
+        <v>6.465733618347482</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.7182261088892</v>
+        <v>14.15386949735734</v>
       </c>
       <c r="O4">
-        <v>26.24770408916818</v>
+        <v>19.02951525687881</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.43980686821855</v>
+        <v>12.94642829216285</v>
       </c>
       <c r="C5">
-        <v>9.345327262262163</v>
+        <v>6.325536002444506</v>
       </c>
       <c r="D5">
-        <v>2.561584124272155</v>
+        <v>4.985251909278276</v>
       </c>
       <c r="E5">
-        <v>6.334918390502617</v>
+        <v>7.733028285400841</v>
       </c>
       <c r="F5">
-        <v>34.54302699802268</v>
+        <v>25.1114307452069</v>
       </c>
       <c r="G5">
-        <v>2.145286170148691</v>
+        <v>2.131950358500331</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.908895913285432</v>
+        <v>6.010190487796074</v>
       </c>
       <c r="K5">
-        <v>16.02906333884216</v>
+        <v>9.534273544604911</v>
       </c>
       <c r="L5">
-        <v>7.087643587397556</v>
+        <v>6.435799648125151</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.78379858155926</v>
+        <v>14.20611892099748</v>
       </c>
       <c r="O5">
-        <v>26.14245018271678</v>
+        <v>19.0428567078799</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.38369515556909</v>
+        <v>12.90976745646219</v>
       </c>
       <c r="C6">
-        <v>9.312060255406704</v>
+        <v>6.322444399506903</v>
       </c>
       <c r="D6">
-        <v>2.559903712250451</v>
+        <v>4.977975784182574</v>
       </c>
       <c r="E6">
-        <v>6.335848959371345</v>
+        <v>7.731309380087871</v>
       </c>
       <c r="F6">
-        <v>34.514376149448</v>
+        <v>25.10719330484231</v>
       </c>
       <c r="G6">
-        <v>2.145687182954387</v>
+        <v>2.132158466403341</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.911166060683662</v>
+        <v>6.01208089107835</v>
       </c>
       <c r="K6">
-        <v>15.98510716675844</v>
+        <v>9.502198386999464</v>
       </c>
       <c r="L6">
-        <v>7.081724345131181</v>
+        <v>6.430850877808336</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.79473830198711</v>
+        <v>14.21484020208091</v>
       </c>
       <c r="O6">
-        <v>26.12527206893472</v>
+        <v>19.04525069689986</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.77119019340609</v>
+        <v>13.16246100890209</v>
       </c>
       <c r="C7">
-        <v>9.540827391771634</v>
+        <v>6.343880089033322</v>
       </c>
       <c r="D7">
-        <v>2.571588430498568</v>
+        <v>5.028416584245347</v>
       </c>
       <c r="E7">
-        <v>6.329552377061572</v>
+        <v>7.743510181378708</v>
       </c>
       <c r="F7">
-        <v>34.71540127469424</v>
+        <v>25.13806204593553</v>
       </c>
       <c r="G7">
-        <v>2.142917906212617</v>
+        <v>2.130722797708956</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.895522237911939</v>
+        <v>5.999082680337381</v>
       </c>
       <c r="K7">
-        <v>16.2886618862412</v>
+        <v>9.722627307115063</v>
       </c>
       <c r="L7">
-        <v>7.123032860015381</v>
+        <v>6.465328480939181</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.7191070105398</v>
+        <v>14.1545711267467</v>
       </c>
       <c r="O7">
-        <v>26.24626447448287</v>
+        <v>19.02968314433113</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.42965038644936</v>
+        <v>14.2321692537663</v>
       </c>
       <c r="C8">
-        <v>10.49771475432286</v>
+        <v>6.437841550269649</v>
       </c>
       <c r="D8">
-        <v>2.623675750041875</v>
+        <v>5.248960710513106</v>
       </c>
       <c r="E8">
-        <v>6.305840549416944</v>
+        <v>7.804048905369972</v>
       </c>
       <c r="F8">
-        <v>35.65609586587354</v>
+        <v>25.31096698391864</v>
       </c>
       <c r="G8">
-        <v>2.131037205332749</v>
+        <v>2.124602833614503</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.829277782817513</v>
+        <v>5.944781226643657</v>
       </c>
       <c r="K8">
-        <v>17.58793883600154</v>
+        <v>10.64075615140065</v>
       </c>
       <c r="L8">
-        <v>7.310652319787128</v>
+        <v>6.620410718510993</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.39264190804698</v>
+        <v>13.89506353913274</v>
       </c>
       <c r="O8">
-        <v>26.82433897773976</v>
+        <v>18.98764477565064</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.47983246635506</v>
+        <v>16.15576587534519</v>
       </c>
       <c r="C9">
-        <v>12.18941895282219</v>
+        <v>6.619384031087866</v>
       </c>
       <c r="D9">
-        <v>2.727881936854409</v>
+        <v>5.670054581491782</v>
       </c>
       <c r="E9">
-        <v>6.274503759339911</v>
+        <v>7.947000337496537</v>
       </c>
       <c r="F9">
-        <v>37.69526181545753</v>
+        <v>25.78757953847485</v>
       </c>
       <c r="G9">
-        <v>2.108837553526767</v>
+        <v>2.113344009298553</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.709199548090884</v>
+        <v>5.849360456957109</v>
       </c>
       <c r="K9">
-        <v>19.97781615616116</v>
+        <v>12.24605501089666</v>
       </c>
       <c r="L9">
-        <v>7.696164726537688</v>
+        <v>6.933000986440646</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.77659046501141</v>
+        <v>13.40792159979307</v>
       </c>
       <c r="O9">
-        <v>28.12252086547345</v>
+        <v>19.00767151518101</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.58877062192093</v>
+        <v>17.4562448360105</v>
       </c>
       <c r="C10">
-        <v>13.32437564858442</v>
+        <v>6.750743144453028</v>
       </c>
       <c r="D10">
-        <v>2.80599000625718</v>
+        <v>5.969350627398739</v>
       </c>
       <c r="E10">
-        <v>6.261257621275941</v>
+        <v>8.066867143027725</v>
       </c>
       <c r="F10">
-        <v>39.31391420033275</v>
+        <v>26.22616241377337</v>
       </c>
       <c r="G10">
-        <v>2.093069062375399</v>
+        <v>2.105493187246679</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.626781138907869</v>
+        <v>5.786086028663178</v>
       </c>
       <c r="K10">
-        <v>21.71677171135209</v>
+        <v>13.30791000468619</v>
       </c>
       <c r="L10">
-        <v>7.988889532182666</v>
+        <v>7.166007762055465</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.33673526087464</v>
+        <v>13.06184584810199</v>
       </c>
       <c r="O10">
-        <v>29.18186084808904</v>
+        <v>19.09095788730409</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.51884471273106</v>
+        <v>18.02251613641417</v>
       </c>
       <c r="C11">
-        <v>13.81842757253956</v>
+        <v>6.809995125832476</v>
       </c>
       <c r="D11">
-        <v>2.841956080972019</v>
+        <v>6.102765639643481</v>
       </c>
       <c r="E11">
-        <v>6.257484093907646</v>
+        <v>8.124616916138946</v>
       </c>
       <c r="F11">
-        <v>40.07710424897336</v>
+        <v>26.44571540567091</v>
       </c>
       <c r="G11">
-        <v>2.08598144264045</v>
+        <v>2.10200573002961</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.590505622871798</v>
+        <v>5.758807370535759</v>
       </c>
       <c r="K11">
-        <v>22.54377399792162</v>
+        <v>13.76582739308478</v>
       </c>
       <c r="L11">
-        <v>8.123917692619811</v>
+        <v>7.272371535996941</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.13896922539291</v>
+        <v>12.90664002734711</v>
       </c>
       <c r="O11">
-        <v>29.68791378486431</v>
+        <v>19.14503801621503</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.86683877756894</v>
+        <v>18.23326253099156</v>
       </c>
       <c r="C12">
-        <v>14.00242074541021</v>
+        <v>6.832354690282508</v>
       </c>
       <c r="D12">
-        <v>2.855648583189516</v>
+        <v>6.15285402070963</v>
       </c>
       <c r="E12">
-        <v>6.256390881622861</v>
+        <v>8.146946938034809</v>
       </c>
       <c r="F12">
-        <v>40.3700479278749</v>
+        <v>26.53179413724732</v>
       </c>
       <c r="G12">
-        <v>2.083306905802716</v>
+        <v>2.100696553559684</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.57694069674926</v>
+        <v>5.748696464502814</v>
       </c>
       <c r="K12">
-        <v>22.85178615230147</v>
+        <v>13.93564972895603</v>
       </c>
       <c r="L12">
-        <v>8.175306165581855</v>
+        <v>7.312673255485197</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.06437955298499</v>
+        <v>12.84815862321286</v>
       </c>
       <c r="O12">
-        <v>29.88312879473808</v>
+        <v>19.16795085521985</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.7920784071955</v>
+        <v>18.18803911975772</v>
       </c>
       <c r="C13">
-        <v>13.96293031906351</v>
+        <v>6.827542700850037</v>
       </c>
       <c r="D13">
-        <v>2.852696220490454</v>
+        <v>6.142086422879958</v>
       </c>
       <c r="E13">
-        <v>6.256611191715843</v>
+        <v>8.142117280328465</v>
       </c>
       <c r="F13">
-        <v>40.30678042654381</v>
+        <v>26.51312398831156</v>
       </c>
       <c r="G13">
-        <v>2.083882547158349</v>
+        <v>2.100978009242914</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.579854555561617</v>
+        <v>5.750864249261332</v>
       </c>
       <c r="K13">
-        <v>22.78567688839318</v>
+        <v>13.89923417943631</v>
       </c>
       <c r="L13">
-        <v>8.164227478908771</v>
+        <v>7.303992926610432</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.08043097635802</v>
+        <v>12.86074113822243</v>
       </c>
       <c r="O13">
-        <v>29.84092439882187</v>
+        <v>19.16290625034899</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.5475584501708</v>
+        <v>18.03992849296996</v>
       </c>
       <c r="C14">
-        <v>13.83362616002206</v>
+        <v>6.811836250109855</v>
       </c>
       <c r="D14">
-        <v>2.843081040799497</v>
+        <v>6.106895326488013</v>
       </c>
       <c r="E14">
-        <v>6.257387354100365</v>
+        <v>8.126444784929454</v>
       </c>
       <c r="F14">
-        <v>40.10112537027216</v>
+        <v>26.45273794972076</v>
       </c>
       <c r="G14">
-        <v>2.085761236446494</v>
+        <v>2.101897797538308</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.589386203019849</v>
+        <v>5.757971137221393</v>
       </c>
       <c r="K14">
-        <v>22.5692167280424</v>
+        <v>13.77987035522555</v>
       </c>
       <c r="L14">
-        <v>8.128140368573387</v>
+        <v>7.27568685847644</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.13282687189858</v>
+        <v>12.90182305021649</v>
       </c>
       <c r="O14">
-        <v>29.70390171785264</v>
+        <v>19.14687369059929</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.39723637217036</v>
+        <v>17.94872504979037</v>
       </c>
       <c r="C15">
-        <v>13.75402406227382</v>
+        <v>6.802205304134869</v>
       </c>
       <c r="D15">
-        <v>2.837201316749578</v>
+        <v>6.085282292048799</v>
       </c>
       <c r="E15">
-        <v>6.257906869920557</v>
+        <v>8.116904958270585</v>
       </c>
       <c r="F15">
-        <v>39.97567171076247</v>
+        <v>26.41613407340126</v>
       </c>
       <c r="G15">
-        <v>2.086913119245009</v>
+        <v>2.102462666277101</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.595246893642406</v>
+        <v>5.762352901330896</v>
       </c>
       <c r="K15">
-        <v>22.43596206635711</v>
+        <v>13.70629120568845</v>
       </c>
       <c r="L15">
-        <v>8.106069070564107</v>
+        <v>7.258350886600651</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.1649589233289</v>
+        <v>12.92702402010744</v>
       </c>
       <c r="O15">
-        <v>29.62044167392705</v>
+        <v>19.1373733582345</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.52739817724576</v>
+        <v>17.41872369488311</v>
       </c>
       <c r="C16">
-        <v>13.29164932061399</v>
+        <v>6.746860271003935</v>
       </c>
       <c r="D16">
-        <v>2.803649118208231</v>
+        <v>5.960573084418283</v>
       </c>
       <c r="E16">
-        <v>6.261550541795232</v>
+        <v>8.063157743335433</v>
       </c>
       <c r="F16">
-        <v>39.26458433588524</v>
+        <v>26.21222236825292</v>
       </c>
       <c r="G16">
-        <v>2.093533734445403</v>
+        <v>2.105722737299802</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.629176047976912</v>
+        <v>5.787899247094311</v>
       </c>
       <c r="K16">
-        <v>21.66199495930873</v>
+        <v>13.27748110559956</v>
       </c>
       <c r="L16">
-        <v>7.98010152517069</v>
+        <v>7.159061532744721</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.34970359737423</v>
+        <v>13.07203131314794</v>
       </c>
       <c r="O16">
-        <v>29.1492841739994</v>
+        <v>19.0877584906565</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.98626789833974</v>
+        <v>17.08706004712189</v>
       </c>
       <c r="C17">
-        <v>13.00237145255126</v>
+        <v>6.712774772015137</v>
       </c>
       <c r="D17">
-        <v>2.783183867182228</v>
+        <v>5.883337418097507</v>
       </c>
       <c r="E17">
-        <v>6.264370786998316</v>
+        <v>8.031009592652115</v>
       </c>
       <c r="F17">
-        <v>38.83528001312354</v>
+        <v>26.09230421422787</v>
       </c>
       <c r="G17">
-        <v>2.097615200263372</v>
+        <v>2.107743749455484</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.650299946622678</v>
+        <v>5.803958293965702</v>
       </c>
       <c r="K17">
-        <v>21.17783894983627</v>
+        <v>13.00800658591666</v>
       </c>
       <c r="L17">
-        <v>7.903292293044399</v>
+        <v>7.098223827596899</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.46360974291036</v>
+        <v>13.16153899069478</v>
       </c>
       <c r="O17">
-        <v>28.86650391027312</v>
+        <v>19.06154397312479</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.67226332038289</v>
+        <v>16.89391390987635</v>
       </c>
       <c r="C18">
-        <v>12.83388571540171</v>
+        <v>6.693122548554749</v>
       </c>
       <c r="D18">
-        <v>2.771452911939836</v>
+        <v>5.838657979488262</v>
       </c>
       <c r="E18">
-        <v>6.266204136421873</v>
+        <v>8.012822224305333</v>
       </c>
       <c r="F18">
-        <v>38.5908771228809</v>
+        <v>26.02521364983051</v>
       </c>
       <c r="G18">
-        <v>2.09997099455498</v>
+        <v>2.108914120386003</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.662564600607277</v>
+        <v>5.813336543054157</v>
       </c>
       <c r="K18">
-        <v>20.91220932116578</v>
+        <v>12.85064491608261</v>
       </c>
       <c r="L18">
-        <v>7.859289746494222</v>
+        <v>7.063267822389322</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.52934658222181</v>
+        <v>13.21323273710886</v>
       </c>
       <c r="O18">
-        <v>28.70612219125243</v>
+        <v>19.04798396309119</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.56547317445154</v>
+        <v>16.82811056347732</v>
       </c>
       <c r="C19">
-        <v>12.7764754922347</v>
+        <v>6.686460720909084</v>
       </c>
       <c r="D19">
-        <v>2.767487622169746</v>
+        <v>5.823487692447654</v>
       </c>
       <c r="E19">
-        <v>6.266860809033808</v>
+        <v>8.006716450410153</v>
       </c>
       <c r="F19">
-        <v>38.50855771050109</v>
+        <v>26.00281954121236</v>
       </c>
       <c r="G19">
-        <v>2.100770125620974</v>
+        <v>2.109311769581982</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.666737005681701</v>
+        <v>5.816536090685609</v>
       </c>
       <c r="K19">
-        <v>20.82852578562624</v>
+        <v>12.79695748454061</v>
       </c>
       <c r="L19">
-        <v>7.844421935486761</v>
+        <v>7.051439452412869</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.55164296158461</v>
+        <v>13.23077247977425</v>
       </c>
       <c r="O19">
-        <v>28.65220580264943</v>
+        <v>19.04365025020672</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.04415796796108</v>
+        <v>17.12261313031924</v>
       </c>
       <c r="C20">
-        <v>13.03338226627249</v>
+        <v>6.716408152166567</v>
       </c>
       <c r="D20">
-        <v>2.785358208153366</v>
+        <v>5.89158603547476</v>
       </c>
       <c r="E20">
-        <v>6.264048624018613</v>
+        <v>8.034400429453354</v>
       </c>
       <c r="F20">
-        <v>38.88071874911412</v>
+        <v>26.10487437198203</v>
       </c>
       <c r="G20">
-        <v>2.097179888255738</v>
+        <v>2.107527792066922</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.648039418663589</v>
+        <v>5.8022341182149</v>
       </c>
       <c r="K20">
-        <v>21.22973782393748</v>
+        <v>13.03693736631799</v>
       </c>
       <c r="L20">
-        <v>7.911450646045679</v>
+        <v>7.104696570087819</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.45146161291463</v>
+        <v>13.15198907741694</v>
       </c>
       <c r="O20">
-        <v>28.89637108564189</v>
+        <v>19.06417669163506</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.6194937072832</v>
+        <v>18.08353255847783</v>
       </c>
       <c r="C21">
-        <v>13.87168899204157</v>
+        <v>6.816451768882299</v>
       </c>
       <c r="D21">
-        <v>2.845903176897149</v>
+        <v>6.117243844862055</v>
       </c>
       <c r="E21">
-        <v>6.25715016453561</v>
+        <v>8.13103567063771</v>
       </c>
       <c r="F21">
-        <v>40.16142352446204</v>
+        <v>26.47039460766531</v>
       </c>
       <c r="G21">
-        <v>2.085209189722274</v>
+        <v>2.101627327845764</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.586581889449955</v>
+        <v>5.755877708957915</v>
       </c>
       <c r="K21">
-        <v>22.63293493600604</v>
+        <v>13.8150273236011</v>
       </c>
       <c r="L21">
-        <v>8.138733143966427</v>
+        <v>7.284000603615744</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.11742905836573</v>
+        <v>12.88974861570929</v>
       </c>
       <c r="O21">
-        <v>29.74405036509077</v>
+        <v>19.15151595230663</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.6245951698646</v>
+        <v>18.6900411633908</v>
       </c>
       <c r="C22">
-        <v>14.40159601909548</v>
+        <v>6.881380098067198</v>
       </c>
       <c r="D22">
-        <v>2.885904644793424</v>
+        <v>6.262185779855763</v>
       </c>
       <c r="E22">
-        <v>6.254604883324448</v>
+        <v>8.196880827676118</v>
       </c>
       <c r="F22">
-        <v>41.02146599089737</v>
+        <v>26.72643544568292</v>
       </c>
       <c r="G22">
-        <v>2.077438803034156</v>
+        <v>2.097837446571887</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.547415855197069</v>
+        <v>5.7268585808572</v>
       </c>
       <c r="K22">
-        <v>23.52003878025494</v>
+        <v>14.30269778942492</v>
       </c>
       <c r="L22">
-        <v>8.288767240712422</v>
+        <v>7.401314510918722</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.90085255668516</v>
+        <v>12.72004497310847</v>
       </c>
       <c r="O22">
-        <v>30.31901269939066</v>
+        <v>19.22283187437221</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.09037784762972</v>
+        <v>18.36831510066492</v>
       </c>
       <c r="C23">
-        <v>14.12038171932564</v>
+        <v>6.846769965797758</v>
       </c>
       <c r="D23">
-        <v>2.864511462263078</v>
+        <v>6.185071532904328</v>
       </c>
       <c r="E23">
-        <v>6.255779499514912</v>
+        <v>8.161492763567212</v>
       </c>
       <c r="F23">
-        <v>40.56030331128949</v>
+        <v>26.58819471625478</v>
       </c>
       <c r="G23">
-        <v>2.081582185001993</v>
+        <v>2.099854314999404</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.568229067561572</v>
+        <v>5.742228846464716</v>
       </c>
       <c r="K23">
-        <v>23.04926125323053</v>
+        <v>14.04431596243584</v>
       </c>
       <c r="L23">
-        <v>8.208557317562496</v>
+        <v>7.338699127159018</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.01629624978352</v>
+        <v>12.81047459637885</v>
       </c>
       <c r="O23">
-        <v>30.01018538976034</v>
+        <v>19.18343217837556</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.0179949052163</v>
+        <v>17.10654726583209</v>
       </c>
       <c r="C24">
-        <v>13.01936906308521</v>
+        <v>6.714765675058451</v>
       </c>
       <c r="D24">
-        <v>2.784375080993089</v>
+        <v>5.887857691013147</v>
       </c>
       <c r="E24">
-        <v>6.26419361459976</v>
+        <v>8.032866513041313</v>
       </c>
       <c r="F24">
-        <v>38.86016839575815</v>
+        <v>26.09918563954367</v>
       </c>
       <c r="G24">
-        <v>2.097376663614598</v>
+        <v>2.107625399991827</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.649061028583299</v>
+        <v>5.803013164466927</v>
       </c>
       <c r="K24">
-        <v>21.20628560191292</v>
+        <v>13.023865354159</v>
       </c>
       <c r="L24">
-        <v>7.907761767432634</v>
+        <v>7.10177017744954</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.45695299906434</v>
+        <v>13.15630586038674</v>
       </c>
       <c r="O24">
-        <v>28.88286131482921</v>
+        <v>19.06298174095785</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.67745494696608</v>
+        <v>15.65481882109329</v>
       </c>
       <c r="C25">
-        <v>11.75108990701913</v>
+        <v>6.570601830131677</v>
       </c>
       <c r="D25">
-        <v>2.699445979024182</v>
+        <v>5.557701957533133</v>
       </c>
       <c r="E25">
-        <v>6.281305286293796</v>
+        <v>7.905723138655718</v>
       </c>
       <c r="F25">
-        <v>37.12261852349343</v>
+        <v>25.64341861222367</v>
       </c>
       <c r="G25">
-        <v>2.114738090890337</v>
+        <v>2.116313505254482</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.740651069445011</v>
+        <v>5.873981714799441</v>
       </c>
       <c r="K25">
-        <v>19.34910231382887</v>
+        <v>11.832540448649</v>
       </c>
       <c r="L25">
-        <v>7.590126565924569</v>
+        <v>6.847721010525166</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.94086355117218</v>
+        <v>13.53752118534786</v>
       </c>
       <c r="O25">
-        <v>27.75316982970441</v>
+        <v>18.99065263915904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.51054232755054</v>
+        <v>13.24886148222548</v>
       </c>
       <c r="C2">
-        <v>6.463130992475495</v>
+        <v>6.659611109580829</v>
       </c>
       <c r="D2">
-        <v>5.308075140429913</v>
+        <v>6.262826376539882</v>
       </c>
       <c r="E2">
-        <v>7.822087223541336</v>
+        <v>8.352406529174429</v>
       </c>
       <c r="F2">
-        <v>25.36693746863732</v>
+        <v>21.18954351520955</v>
       </c>
       <c r="G2">
-        <v>2.122995990433311</v>
+        <v>23.20869791517378</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.418769212822417</v>
       </c>
       <c r="J2">
-        <v>5.930814282741357</v>
+        <v>9.446811409502397</v>
       </c>
       <c r="K2">
-        <v>10.87627351401391</v>
+        <v>15.20932815598998</v>
       </c>
       <c r="L2">
-        <v>6.66307303321404</v>
+        <v>5.950480334519495</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.80599901680298</v>
       </c>
       <c r="N2">
-        <v>13.82627263071378</v>
+        <v>7.116241715597978</v>
       </c>
       <c r="O2">
-        <v>18.98296140429413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.85166492248548</v>
+      </c>
+      <c r="Q2">
+        <v>15.38442010270273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.69018962701759</v>
+        <v>12.42421122499385</v>
       </c>
       <c r="C3">
-        <v>6.389589980720063</v>
+        <v>6.546544056973784</v>
       </c>
       <c r="D3">
-        <v>5.135854737346012</v>
+        <v>6.049333866334876</v>
       </c>
       <c r="E3">
-        <v>7.771608027508865</v>
+        <v>8.204938393959504</v>
       </c>
       <c r="F3">
-        <v>25.21491604402831</v>
+        <v>21.02346136778509</v>
       </c>
       <c r="G3">
-        <v>2.12771335482707</v>
+        <v>23.03533803143517</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.602261899662263</v>
       </c>
       <c r="J3">
-        <v>5.972158889405925</v>
+        <v>9.48988592936265</v>
       </c>
       <c r="K3">
-        <v>10.17837895441978</v>
+        <v>15.30056390326719</v>
       </c>
       <c r="L3">
-        <v>6.540035474170214</v>
+        <v>5.920901224256951</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.19117925856201</v>
       </c>
       <c r="N3">
-        <v>14.0274697552342</v>
+        <v>6.922927790910038</v>
       </c>
       <c r="O3">
-        <v>19.00415283328705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.98355974404982</v>
+      </c>
+      <c r="Q3">
+        <v>15.40255408418528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.16539366850774</v>
+        <v>11.88982888674715</v>
       </c>
       <c r="C4">
-        <v>6.344130590267927</v>
+        <v>6.475676306750364</v>
       </c>
       <c r="D4">
-        <v>5.029005896701917</v>
+        <v>5.915244985918079</v>
       </c>
       <c r="E4">
-        <v>7.743656599456131</v>
+        <v>8.113084009125625</v>
       </c>
       <c r="F4">
-        <v>25.13844302570683</v>
+        <v>20.93079709664106</v>
       </c>
       <c r="G4">
-        <v>2.130706117903987</v>
+        <v>22.94335685976834</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.719186166931156</v>
       </c>
       <c r="J4">
-        <v>5.998932255104891</v>
+        <v>9.519703654611368</v>
       </c>
       <c r="K4">
-        <v>9.725176701406614</v>
+        <v>15.36285196597894</v>
       </c>
       <c r="L4">
-        <v>6.465733618347482</v>
+        <v>5.902237893309358</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.793264870047256</v>
       </c>
       <c r="N4">
-        <v>14.15386949735734</v>
+        <v>6.801533304977614</v>
       </c>
       <c r="O4">
-        <v>19.02951525687881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>13.06670688299852</v>
+      </c>
+      <c r="Q4">
+        <v>15.42106388421634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.94642829216285</v>
+        <v>11.6650850299241</v>
       </c>
       <c r="C5">
-        <v>6.325536002444506</v>
+        <v>6.446450200293814</v>
       </c>
       <c r="D5">
-        <v>4.985251909278276</v>
+        <v>5.859920386836523</v>
       </c>
       <c r="E5">
-        <v>7.733028285400841</v>
+        <v>8.075348929549985</v>
       </c>
       <c r="F5">
-        <v>25.1114307452069</v>
+        <v>20.89536012122456</v>
       </c>
       <c r="G5">
-        <v>2.131950358500331</v>
+        <v>22.90944723104005</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.76791670178522</v>
       </c>
       <c r="J5">
-        <v>6.010190487796074</v>
+        <v>9.532684351093167</v>
       </c>
       <c r="K5">
-        <v>9.534273544604911</v>
+        <v>15.38977224823927</v>
       </c>
       <c r="L5">
-        <v>6.435799648125151</v>
+        <v>5.894505006357466</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.626038222214877</v>
       </c>
       <c r="N5">
-        <v>14.20611892099748</v>
+        <v>6.751436436090379</v>
       </c>
       <c r="O5">
-        <v>19.0428567078799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.10114041099265</v>
+      </c>
+      <c r="Q5">
+        <v>15.4304135135739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.90976745646219</v>
+        <v>11.62734756909715</v>
       </c>
       <c r="C6">
-        <v>6.322444399506903</v>
+        <v>6.441576763578186</v>
       </c>
       <c r="D6">
-        <v>4.977975784182574</v>
+        <v>5.850694833744553</v>
       </c>
       <c r="E6">
-        <v>7.731309380087871</v>
+        <v>8.069065463376464</v>
       </c>
       <c r="F6">
-        <v>25.10719330484231</v>
+        <v>20.8896156478646</v>
       </c>
       <c r="G6">
-        <v>2.132158466403341</v>
+        <v>22.90403038366019</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.776074122292485</v>
       </c>
       <c r="J6">
-        <v>6.01208089107835</v>
+        <v>9.534889394779947</v>
       </c>
       <c r="K6">
-        <v>9.502198386999464</v>
+        <v>15.39433408320158</v>
       </c>
       <c r="L6">
-        <v>6.430850877808336</v>
+        <v>5.893213233345004</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.597966012456341</v>
       </c>
       <c r="N6">
-        <v>14.21484020208091</v>
+        <v>6.743081543337666</v>
       </c>
       <c r="O6">
-        <v>19.04525069689986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.10689150145892</v>
+      </c>
+      <c r="Q6">
+        <v>15.43207373411958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.16246100890209</v>
+        <v>11.88682605615947</v>
       </c>
       <c r="C7">
-        <v>6.343880089033322</v>
+        <v>6.47528353594201</v>
       </c>
       <c r="D7">
-        <v>5.028416584245347</v>
+        <v>5.914501520273292</v>
       </c>
       <c r="E7">
-        <v>7.743510181378708</v>
+        <v>8.112576296147981</v>
       </c>
       <c r="F7">
-        <v>25.13806204593553</v>
+        <v>20.93030979512378</v>
       </c>
       <c r="G7">
-        <v>2.130722797708956</v>
+        <v>22.94288516338504</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.719838963478134</v>
       </c>
       <c r="J7">
-        <v>5.999082680337381</v>
+        <v>9.519875380142274</v>
       </c>
       <c r="K7">
-        <v>9.722627307115063</v>
+        <v>15.36320884790029</v>
       </c>
       <c r="L7">
-        <v>6.465328480939181</v>
+        <v>5.90213412251368</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.79103004410717</v>
       </c>
       <c r="N7">
-        <v>14.1545711267467</v>
+        <v>6.800860152278769</v>
       </c>
       <c r="O7">
-        <v>19.02968314433113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>13.06716902858889</v>
+      </c>
+      <c r="Q7">
+        <v>15.4211827244471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.2321692537663</v>
+        <v>12.9703798083515</v>
       </c>
       <c r="C8">
-        <v>6.437841550269649</v>
+        <v>6.620934780111816</v>
       </c>
       <c r="D8">
-        <v>5.248960710513106</v>
+        <v>6.18987928703549</v>
       </c>
       <c r="E8">
-        <v>7.804048905369972</v>
+        <v>8.301845977838525</v>
       </c>
       <c r="F8">
-        <v>25.31096698391864</v>
+        <v>21.13033719159082</v>
       </c>
       <c r="G8">
-        <v>2.124602833614503</v>
+        <v>23.14588616672818</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.481160857568141</v>
       </c>
       <c r="J8">
-        <v>5.944781226643657</v>
+        <v>9.460953323620803</v>
       </c>
       <c r="K8">
-        <v>10.64075615140065</v>
+        <v>15.23946122154824</v>
       </c>
       <c r="L8">
-        <v>6.620410718510993</v>
+        <v>5.940384776294085</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.59827674595729</v>
       </c>
       <c r="N8">
-        <v>13.89506353913274</v>
+        <v>7.050176742126478</v>
       </c>
       <c r="O8">
-        <v>18.98764477565064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.89669721154354</v>
+      </c>
+      <c r="Q8">
+        <v>15.38911313347713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.15576587534519</v>
+        <v>14.91465446141566</v>
       </c>
       <c r="C9">
-        <v>6.619384031087866</v>
+        <v>6.894434146339065</v>
       </c>
       <c r="D9">
-        <v>5.670054581491782</v>
+        <v>6.703196064448747</v>
       </c>
       <c r="E9">
-        <v>7.947000337496537</v>
+        <v>8.661562081332788</v>
       </c>
       <c r="F9">
-        <v>25.78757953847485</v>
+        <v>21.59700965640182</v>
       </c>
       <c r="G9">
-        <v>2.113344009298553</v>
+        <v>23.66114534387637</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.046345130874609</v>
       </c>
       <c r="J9">
-        <v>5.849360456957109</v>
+        <v>9.372964086692141</v>
       </c>
       <c r="K9">
-        <v>12.24605501089666</v>
+        <v>15.0483546597137</v>
       </c>
       <c r="L9">
-        <v>6.933000986440646</v>
+        <v>6.011476602331907</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.01744777037569</v>
       </c>
       <c r="N9">
-        <v>13.40792159979307</v>
+        <v>7.515617680226197</v>
       </c>
       <c r="O9">
-        <v>19.00767151518101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.57926461942709</v>
+      </c>
+      <c r="Q9">
+        <v>15.38688435976034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.4562448360105</v>
+        <v>16.19267485268444</v>
       </c>
       <c r="C10">
-        <v>6.750743144453028</v>
+        <v>7.107012513566588</v>
       </c>
       <c r="D10">
-        <v>5.969350627398739</v>
+        <v>7.018101267297648</v>
       </c>
       <c r="E10">
-        <v>8.066867143027725</v>
+        <v>8.832003847125605</v>
       </c>
       <c r="F10">
-        <v>26.22616241377337</v>
+        <v>21.88977159145588</v>
       </c>
       <c r="G10">
-        <v>2.105493187246679</v>
+        <v>23.99423155817771</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.776313486001709</v>
       </c>
       <c r="J10">
-        <v>5.786086028663178</v>
+        <v>9.307249751258722</v>
       </c>
       <c r="K10">
-        <v>13.30791000468619</v>
+        <v>14.89843263540157</v>
       </c>
       <c r="L10">
-        <v>7.166007762055465</v>
+        <v>6.039294263687803</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.94743182934628</v>
       </c>
       <c r="N10">
-        <v>13.06184584810199</v>
+        <v>7.766745566579639</v>
       </c>
       <c r="O10">
-        <v>19.09095788730409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.35927023980799</v>
+      </c>
+      <c r="Q10">
+        <v>15.37620407524643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02251613641417</v>
+        <v>16.42426125666937</v>
       </c>
       <c r="C11">
-        <v>6.809995125832476</v>
+        <v>7.382155999355926</v>
       </c>
       <c r="D11">
-        <v>6.102765639643481</v>
+        <v>6.78989140725231</v>
       </c>
       <c r="E11">
-        <v>8.124616916138946</v>
+        <v>8.211171267438353</v>
       </c>
       <c r="F11">
-        <v>26.44571540567091</v>
+        <v>21.19909002106019</v>
       </c>
       <c r="G11">
-        <v>2.10200573002961</v>
+        <v>23.12159967949623</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.775867797893933</v>
       </c>
       <c r="J11">
-        <v>5.758807370535759</v>
+        <v>9.115177238300701</v>
       </c>
       <c r="K11">
-        <v>13.76582739308478</v>
+        <v>14.46136562468783</v>
       </c>
       <c r="L11">
-        <v>7.272371535996941</v>
+        <v>5.898470893063076</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.25379060288172</v>
       </c>
       <c r="N11">
-        <v>12.90664002734711</v>
+        <v>7.25200346168559</v>
       </c>
       <c r="O11">
-        <v>19.14503801621503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.2989256955813</v>
+      </c>
+      <c r="Q11">
+        <v>14.95380224585787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.23326253099156</v>
+        <v>16.35774674901494</v>
       </c>
       <c r="C12">
-        <v>6.832354690282508</v>
+        <v>7.581841371985189</v>
       </c>
       <c r="D12">
-        <v>6.15285402070963</v>
+        <v>6.527964916318123</v>
       </c>
       <c r="E12">
-        <v>8.146946938034809</v>
+        <v>7.713974502791984</v>
       </c>
       <c r="F12">
-        <v>26.53179413724732</v>
+        <v>20.54041876073595</v>
       </c>
       <c r="G12">
-        <v>2.100696553559684</v>
+        <v>22.29420933037905</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.158724712189321</v>
       </c>
       <c r="J12">
-        <v>5.748696464502814</v>
+        <v>8.963549717454129</v>
       </c>
       <c r="K12">
-        <v>13.93564972895603</v>
+        <v>14.1226766922417</v>
       </c>
       <c r="L12">
-        <v>7.312673255485197</v>
+        <v>5.827461302084586</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.32294024600604</v>
       </c>
       <c r="N12">
-        <v>12.84815862321286</v>
+        <v>6.780922221023887</v>
       </c>
       <c r="O12">
-        <v>19.16795085521985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.30349605153472</v>
+      </c>
+      <c r="Q12">
+        <v>14.59138383760782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.18803911975772</v>
+        <v>16.05596133582977</v>
       </c>
       <c r="C13">
-        <v>6.827542700850037</v>
+        <v>7.735234948961291</v>
       </c>
       <c r="D13">
-        <v>6.142086422879958</v>
+        <v>6.219323256108187</v>
       </c>
       <c r="E13">
-        <v>8.142117280328465</v>
+        <v>7.292166709101474</v>
       </c>
       <c r="F13">
-        <v>26.51312398831156</v>
+        <v>19.86209041119917</v>
       </c>
       <c r="G13">
-        <v>2.100978009242914</v>
+        <v>21.4437892512171</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.583625206401956</v>
       </c>
       <c r="J13">
-        <v>5.750864249261332</v>
+        <v>8.833963956737106</v>
       </c>
       <c r="K13">
-        <v>13.89923417943631</v>
+        <v>13.84071171154294</v>
       </c>
       <c r="L13">
-        <v>7.303992926610432</v>
+        <v>5.805791596524942</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.21608246198179</v>
       </c>
       <c r="N13">
-        <v>12.86074113822243</v>
+        <v>6.314277475495154</v>
       </c>
       <c r="O13">
-        <v>19.16290625034899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.35505474665076</v>
+      </c>
+      <c r="Q13">
+        <v>14.25257396765168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.03992849296996</v>
+        <v>15.73368323092362</v>
       </c>
       <c r="C14">
-        <v>6.811836250109855</v>
+        <v>7.822748912544172</v>
       </c>
       <c r="D14">
-        <v>6.106895326488013</v>
+        <v>5.980065747690977</v>
       </c>
       <c r="E14">
-        <v>8.126444784929454</v>
+        <v>7.050180154222868</v>
       </c>
       <c r="F14">
-        <v>26.45273794972076</v>
+        <v>19.37971015916147</v>
       </c>
       <c r="G14">
-        <v>2.101897797538308</v>
+        <v>20.83928169944759</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.593123172674218</v>
       </c>
       <c r="J14">
-        <v>5.757971137221393</v>
+        <v>8.754022491803342</v>
       </c>
       <c r="K14">
-        <v>13.77987035522555</v>
+        <v>13.67209322288907</v>
       </c>
       <c r="L14">
-        <v>7.27568685847644</v>
+        <v>5.819760834578644</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.06032512055179</v>
       </c>
       <c r="N14">
-        <v>12.90182305021649</v>
+        <v>5.99573524892796</v>
       </c>
       <c r="O14">
-        <v>19.14687369059929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.41214667391793</v>
+      </c>
+      <c r="Q14">
+        <v>14.02792182120278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.94872504979037</v>
+        <v>15.60352785786339</v>
       </c>
       <c r="C15">
-        <v>6.802205304134869</v>
+        <v>7.83264007429125</v>
       </c>
       <c r="D15">
-        <v>6.085282292048799</v>
+        <v>5.9119088202138</v>
       </c>
       <c r="E15">
-        <v>8.116904958270585</v>
+        <v>6.999197240743498</v>
       </c>
       <c r="F15">
-        <v>26.41613407340126</v>
+        <v>19.26048083259455</v>
       </c>
       <c r="G15">
-        <v>2.102462666277101</v>
+        <v>20.69054726439952</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.828035783674304</v>
       </c>
       <c r="J15">
-        <v>5.762352901330896</v>
+        <v>8.739891124672388</v>
       </c>
       <c r="K15">
-        <v>13.70629120568845</v>
+        <v>13.64383827818186</v>
       </c>
       <c r="L15">
-        <v>7.258350886600651</v>
+        <v>5.826121726829264</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.9840831667685</v>
       </c>
       <c r="N15">
-        <v>12.92702402010744</v>
+        <v>5.917276635906927</v>
       </c>
       <c r="O15">
-        <v>19.1373733582345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.43440192030301</v>
+      </c>
+      <c r="Q15">
+        <v>13.97981300641382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.41872369488311</v>
+        <v>15.11840699072114</v>
       </c>
       <c r="C16">
-        <v>6.746860271003935</v>
+        <v>7.71202768776689</v>
       </c>
       <c r="D16">
-        <v>5.960573084418283</v>
+        <v>5.828864655227697</v>
       </c>
       <c r="E16">
-        <v>8.063157743335433</v>
+        <v>7.006893521119248</v>
       </c>
       <c r="F16">
-        <v>26.21222236825292</v>
+        <v>19.2634564486789</v>
       </c>
       <c r="G16">
-        <v>2.105722737299802</v>
+        <v>20.70381129713856</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.627834962317812</v>
       </c>
       <c r="J16">
-        <v>5.787899247094311</v>
+        <v>8.794123049933821</v>
       </c>
       <c r="K16">
-        <v>13.27748110559956</v>
+        <v>13.7673244564133</v>
       </c>
       <c r="L16">
-        <v>7.159061532744721</v>
+        <v>5.814744618809794</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.61781354705407</v>
       </c>
       <c r="N16">
-        <v>13.07203131314794</v>
+        <v>5.894148409232713</v>
       </c>
       <c r="O16">
-        <v>19.0877584906565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.50923057046867</v>
+      </c>
+      <c r="Q16">
+        <v>14.05142213165605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.08706004712189</v>
+        <v>14.91871874409017</v>
       </c>
       <c r="C17">
-        <v>6.712774772015137</v>
+        <v>7.570910991505412</v>
       </c>
       <c r="D17">
-        <v>5.883337418097507</v>
+        <v>5.895497582641497</v>
       </c>
       <c r="E17">
-        <v>8.031009592652115</v>
+        <v>7.131808678709207</v>
       </c>
       <c r="F17">
-        <v>26.09230421422787</v>
+        <v>19.52477202924866</v>
       </c>
       <c r="G17">
-        <v>2.107743749455484</v>
+        <v>21.03987402559633</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.907232512890473</v>
       </c>
       <c r="J17">
-        <v>5.803958293965702</v>
+        <v>8.878350602473905</v>
       </c>
       <c r="K17">
-        <v>13.00800658591666</v>
+        <v>13.95061656547579</v>
       </c>
       <c r="L17">
-        <v>7.098223827596899</v>
+        <v>5.794483572725245</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.41768672601205</v>
       </c>
       <c r="N17">
-        <v>13.16153899069478</v>
+        <v>6.043776251344534</v>
       </c>
       <c r="O17">
-        <v>19.06154397312479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.53770406363765</v>
+      </c>
+      <c r="Q17">
+        <v>14.22626445746537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.89391390987635</v>
+        <v>14.94987993647922</v>
       </c>
       <c r="C18">
-        <v>6.693122548554749</v>
+        <v>7.401201494069166</v>
       </c>
       <c r="D18">
-        <v>5.838657979488262</v>
+        <v>6.099040260787151</v>
       </c>
       <c r="E18">
-        <v>8.012822224305333</v>
+        <v>7.422116398383567</v>
       </c>
       <c r="F18">
-        <v>26.02521364983051</v>
+        <v>20.03442963048957</v>
       </c>
       <c r="G18">
-        <v>2.108914120386003</v>
+        <v>21.68493715575846</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.686968290896254</v>
       </c>
       <c r="J18">
-        <v>5.813336543054157</v>
+        <v>8.996941771903309</v>
       </c>
       <c r="K18">
-        <v>12.85064491608261</v>
+        <v>14.20768408991553</v>
       </c>
       <c r="L18">
-        <v>7.063267822389322</v>
+        <v>5.791777687769325</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.34331097621018</v>
       </c>
       <c r="N18">
-        <v>13.21323273710886</v>
+        <v>6.377654807258059</v>
       </c>
       <c r="O18">
-        <v>19.04798396309119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.53324724180954</v>
+      </c>
+      <c r="Q18">
+        <v>14.50740706572058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.82811056347732</v>
+        <v>15.16361451952851</v>
       </c>
       <c r="C19">
-        <v>6.686460720909084</v>
+        <v>7.228218066993329</v>
       </c>
       <c r="D19">
-        <v>5.823487692447654</v>
+        <v>6.396256241295939</v>
       </c>
       <c r="E19">
-        <v>8.006716450410153</v>
+        <v>7.889315531581661</v>
       </c>
       <c r="F19">
-        <v>26.00281954121236</v>
+        <v>20.70655641814552</v>
       </c>
       <c r="G19">
-        <v>2.109311769581982</v>
+        <v>22.52940240244745</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.264140268508304</v>
       </c>
       <c r="J19">
-        <v>5.816536090685609</v>
+        <v>9.13473442233191</v>
       </c>
       <c r="K19">
-        <v>12.79695748454061</v>
+        <v>14.51083193101237</v>
       </c>
       <c r="L19">
-        <v>7.051439452412869</v>
+        <v>5.843368645549155</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.37713327156855</v>
       </c>
       <c r="N19">
-        <v>13.23077247977425</v>
+        <v>6.857230175760863</v>
       </c>
       <c r="O19">
-        <v>19.04365025020672</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.50737878825477</v>
+      </c>
+      <c r="Q19">
+        <v>14.85424181238141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.12261313031924</v>
+        <v>15.86554948841682</v>
       </c>
       <c r="C20">
-        <v>6.716408152166567</v>
+        <v>7.052633155732206</v>
       </c>
       <c r="D20">
-        <v>5.89158603547476</v>
+        <v>6.934741416617308</v>
       </c>
       <c r="E20">
-        <v>8.034400429453354</v>
+        <v>8.783821494177111</v>
       </c>
       <c r="F20">
-        <v>26.10487437198203</v>
+        <v>21.80553435323773</v>
       </c>
       <c r="G20">
-        <v>2.107527792066922</v>
+        <v>23.8963085057066</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.845180125829866</v>
       </c>
       <c r="J20">
-        <v>5.8022341182149</v>
+        <v>9.322446379812053</v>
       </c>
       <c r="K20">
-        <v>13.03693736631799</v>
+        <v>14.933576266023</v>
       </c>
       <c r="L20">
-        <v>7.104696570087819</v>
+        <v>6.031083912156413</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.70954050774827</v>
       </c>
       <c r="N20">
-        <v>13.15198907741694</v>
+        <v>7.69841263229929</v>
       </c>
       <c r="O20">
-        <v>19.06417669163506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.4164068081607</v>
+      </c>
+      <c r="Q20">
+        <v>15.37411064920983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.08353255847783</v>
+        <v>16.85489141666906</v>
       </c>
       <c r="C21">
-        <v>6.816451768882299</v>
+        <v>7.182221726057919</v>
       </c>
       <c r="D21">
-        <v>6.117243844862055</v>
+        <v>7.235537083316252</v>
       </c>
       <c r="E21">
-        <v>8.13103567063771</v>
+        <v>9.044350550334844</v>
       </c>
       <c r="F21">
-        <v>26.47039460766531</v>
+        <v>22.19325700284917</v>
       </c>
       <c r="G21">
-        <v>2.101627327845764</v>
+        <v>24.36123593935324</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.599547838652476</v>
       </c>
       <c r="J21">
-        <v>5.755877708957915</v>
+        <v>9.307499389374829</v>
       </c>
       <c r="K21">
-        <v>13.8150273236011</v>
+        <v>14.89746877355009</v>
       </c>
       <c r="L21">
-        <v>7.284000603615744</v>
+        <v>6.086069764281056</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.40811917815902</v>
       </c>
       <c r="N21">
-        <v>12.88974861570929</v>
+        <v>8.000203465941807</v>
       </c>
       <c r="O21">
-        <v>19.15151595230663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.24550350989706</v>
+      </c>
+      <c r="Q21">
+        <v>15.45506742365343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.6900411633908</v>
+        <v>17.45424800625232</v>
       </c>
       <c r="C22">
-        <v>6.881380098067198</v>
+        <v>7.275341638477636</v>
       </c>
       <c r="D22">
-        <v>6.262185779855763</v>
+        <v>7.405880098853535</v>
       </c>
       <c r="E22">
-        <v>8.196880827676118</v>
+        <v>9.168897015130813</v>
       </c>
       <c r="F22">
-        <v>26.72643544568292</v>
+        <v>22.40594399125053</v>
       </c>
       <c r="G22">
-        <v>2.097837446571887</v>
+        <v>24.61789646072135</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.662360862740182</v>
       </c>
       <c r="J22">
-        <v>5.7268585808572</v>
+        <v>9.291678107112485</v>
       </c>
       <c r="K22">
-        <v>14.30269778942492</v>
+        <v>14.85872972265314</v>
       </c>
       <c r="L22">
-        <v>7.401314510918722</v>
+        <v>6.110268025624731</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.84028370547653</v>
       </c>
       <c r="N22">
-        <v>12.72004497310847</v>
+        <v>8.155744452763443</v>
       </c>
       <c r="O22">
-        <v>19.22283187437221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.13711031907718</v>
+      </c>
+      <c r="Q22">
+        <v>15.49112913395197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.36831510066492</v>
+        <v>17.13691207699094</v>
       </c>
       <c r="C23">
-        <v>6.846769965797758</v>
+        <v>7.225799808224996</v>
       </c>
       <c r="D23">
-        <v>6.185071532904328</v>
+        <v>7.315372103762788</v>
       </c>
       <c r="E23">
-        <v>8.161492763567212</v>
+        <v>9.102599838711429</v>
       </c>
       <c r="F23">
-        <v>26.58819471625478</v>
+        <v>22.29166920228698</v>
       </c>
       <c r="G23">
-        <v>2.099854314999404</v>
+        <v>24.47962639091665</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.588014111958763</v>
       </c>
       <c r="J23">
-        <v>5.742228846464716</v>
+        <v>9.299781642798527</v>
       </c>
       <c r="K23">
-        <v>14.04431596243584</v>
+        <v>14.87874491559777</v>
       </c>
       <c r="L23">
-        <v>7.338699127159018</v>
+        <v>6.09738777633326</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.6113354540176</v>
       </c>
       <c r="N23">
-        <v>12.81047459637885</v>
+        <v>8.073071521294214</v>
       </c>
       <c r="O23">
-        <v>19.18343217837556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.19481205723126</v>
+      </c>
+      <c r="Q23">
+        <v>15.47112563019171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.10654726583209</v>
+        <v>15.8787903033476</v>
       </c>
       <c r="C24">
-        <v>6.714765675058451</v>
+        <v>7.034758120098718</v>
       </c>
       <c r="D24">
-        <v>5.887857691013147</v>
+        <v>6.963855218466941</v>
       </c>
       <c r="E24">
-        <v>8.032866513041313</v>
+        <v>8.847762011452348</v>
       </c>
       <c r="F24">
-        <v>26.09918563954367</v>
+        <v>21.87560314642443</v>
       </c>
       <c r="G24">
-        <v>2.107625399991827</v>
+        <v>23.98409470101575</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.827558118839373</v>
       </c>
       <c r="J24">
-        <v>5.803013164466927</v>
+        <v>9.337818608876958</v>
       </c>
       <c r="K24">
-        <v>13.023865354159</v>
+        <v>14.96875186866412</v>
       </c>
       <c r="L24">
-        <v>7.10177017744954</v>
+        <v>6.047830440423091</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.70676579270838</v>
       </c>
       <c r="N24">
-        <v>13.15630586038674</v>
+        <v>7.752617718659768</v>
       </c>
       <c r="O24">
-        <v>19.06298174095785</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.41667952974084</v>
+      </c>
+      <c r="Q24">
+        <v>15.41170494517911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.65481882109329</v>
+        <v>14.40025049450152</v>
       </c>
       <c r="C25">
-        <v>6.570601830131677</v>
+        <v>6.821830996621085</v>
       </c>
       <c r="D25">
-        <v>5.557701957533133</v>
+        <v>6.567561271782527</v>
       </c>
       <c r="E25">
-        <v>7.905723138655718</v>
+        <v>8.565616546978241</v>
       </c>
       <c r="F25">
-        <v>25.64341861222367</v>
+        <v>21.46273074441831</v>
       </c>
       <c r="G25">
-        <v>2.116313505254482</v>
+        <v>23.50889485135789</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.160498943805194</v>
       </c>
       <c r="J25">
-        <v>5.873981714799441</v>
+        <v>9.393699283834597</v>
       </c>
       <c r="K25">
-        <v>11.832540448649</v>
+        <v>15.09427082622268</v>
       </c>
       <c r="L25">
-        <v>6.847721010525166</v>
+        <v>5.99265435222966</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.65127443611374</v>
       </c>
       <c r="N25">
-        <v>13.53752118534786</v>
+        <v>7.392486538016926</v>
       </c>
       <c r="O25">
-        <v>18.99065263915904</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.66337777208321</v>
+      </c>
+      <c r="Q25">
+        <v>15.38069109124683</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.24886148222548</v>
+        <v>13.04385465427055</v>
       </c>
       <c r="C2">
-        <v>6.659611109580829</v>
+        <v>6.448611733573258</v>
       </c>
       <c r="D2">
-        <v>6.262826376539882</v>
+        <v>6.292962901788914</v>
       </c>
       <c r="E2">
-        <v>8.352406529174429</v>
+        <v>8.267457007292967</v>
       </c>
       <c r="F2">
-        <v>21.18954351520955</v>
+        <v>20.74304508031218</v>
       </c>
       <c r="G2">
-        <v>23.20869791517378</v>
+        <v>22.00734585304566</v>
       </c>
       <c r="H2">
-        <v>2.418769212822417</v>
+        <v>2.330197269752604</v>
       </c>
       <c r="J2">
-        <v>9.446811409502397</v>
+        <v>9.599660804976052</v>
       </c>
       <c r="K2">
-        <v>15.20932815598998</v>
+        <v>14.71835009224686</v>
       </c>
       <c r="L2">
-        <v>5.950480334519495</v>
+        <v>12.24944414864614</v>
       </c>
       <c r="M2">
-        <v>10.80599901680298</v>
+        <v>9.51128981801947</v>
       </c>
       <c r="N2">
-        <v>7.116241715597978</v>
+        <v>5.888235168831828</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.8264420012165</v>
       </c>
       <c r="P2">
-        <v>12.85166492248548</v>
+        <v>7.281992694412525</v>
       </c>
       <c r="Q2">
-        <v>15.38442010270273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.74283594858254</v>
+      </c>
+      <c r="S2">
+        <v>15.04286587087022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.42421122499385</v>
+        <v>12.20959534131891</v>
       </c>
       <c r="C3">
-        <v>6.546544056973784</v>
+        <v>6.259986014504023</v>
       </c>
       <c r="D3">
-        <v>6.049333866334876</v>
+        <v>6.079734226869086</v>
       </c>
       <c r="E3">
-        <v>8.204938393959504</v>
+        <v>8.1303646012427</v>
       </c>
       <c r="F3">
-        <v>21.02346136778509</v>
+        <v>20.60235079563886</v>
       </c>
       <c r="G3">
-        <v>23.03533803143517</v>
+        <v>21.9119384142193</v>
       </c>
       <c r="H3">
-        <v>2.602261899662263</v>
+        <v>2.501474857881051</v>
       </c>
       <c r="J3">
-        <v>9.48988592936265</v>
+        <v>9.615095662033253</v>
       </c>
       <c r="K3">
-        <v>15.30056390326719</v>
+        <v>14.8198589825924</v>
       </c>
       <c r="L3">
-        <v>5.920901224256951</v>
+        <v>12.39755937023627</v>
       </c>
       <c r="M3">
-        <v>10.19117925856201</v>
+        <v>9.54490818048729</v>
       </c>
       <c r="N3">
-        <v>6.922927790910038</v>
+        <v>5.861305045248012</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.21583386724321</v>
       </c>
       <c r="P3">
-        <v>12.98355974404982</v>
+        <v>7.08717579231887</v>
       </c>
       <c r="Q3">
-        <v>15.40255408418528</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.86128619572381</v>
+      </c>
+      <c r="S3">
+        <v>15.07402889950466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.88982888674715</v>
+        <v>11.67009929575831</v>
       </c>
       <c r="C4">
-        <v>6.475676306750364</v>
+        <v>6.141697529749329</v>
       </c>
       <c r="D4">
-        <v>5.915244985918079</v>
+        <v>5.945955629072194</v>
       </c>
       <c r="E4">
-        <v>8.113084009125625</v>
+        <v>8.044940416612569</v>
       </c>
       <c r="F4">
-        <v>20.93079709664106</v>
+        <v>20.52402964048359</v>
       </c>
       <c r="G4">
-        <v>22.94335685976834</v>
+        <v>21.86887378595243</v>
       </c>
       <c r="H4">
-        <v>2.719186166931156</v>
+        <v>2.610652658499186</v>
       </c>
       <c r="J4">
-        <v>9.519703654611368</v>
+        <v>9.626382938463438</v>
       </c>
       <c r="K4">
-        <v>15.36285196597894</v>
+        <v>14.88721378421121</v>
       </c>
       <c r="L4">
-        <v>5.902237893309358</v>
+        <v>12.49237240399223</v>
       </c>
       <c r="M4">
-        <v>9.793264870047256</v>
+        <v>9.584701027440094</v>
       </c>
       <c r="N4">
-        <v>6.801533304977614</v>
+        <v>5.844247243678772</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.820721529654694</v>
       </c>
       <c r="P4">
-        <v>13.06670688299852</v>
+        <v>6.965250230816582</v>
       </c>
       <c r="Q4">
-        <v>15.42106388421634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.93628724166221</v>
+      </c>
+      <c r="S4">
+        <v>15.09947220622752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.6650850299241</v>
+        <v>11.45206829883</v>
       </c>
       <c r="C5">
-        <v>6.446450200293814</v>
+        <v>6.092927741464873</v>
       </c>
       <c r="D5">
-        <v>5.859920386836523</v>
+        <v>5.890797489817823</v>
       </c>
       <c r="E5">
-        <v>8.075348929549985</v>
+        <v>8.009837398754284</v>
       </c>
       <c r="F5">
-        <v>20.89536012122456</v>
+        <v>20.49411941577104</v>
       </c>
       <c r="G5">
-        <v>22.90944723104005</v>
+        <v>21.85511507057137</v>
       </c>
       <c r="H5">
-        <v>2.76791670178522</v>
+        <v>2.656163087961263</v>
       </c>
       <c r="J5">
-        <v>9.532684351093167</v>
+        <v>9.631430957287106</v>
       </c>
       <c r="K5">
-        <v>15.38977224823927</v>
+        <v>14.91589653189689</v>
       </c>
       <c r="L5">
-        <v>5.894505006357466</v>
+        <v>12.53199255362609</v>
       </c>
       <c r="M5">
-        <v>9.626038222214877</v>
+        <v>9.605651352139931</v>
       </c>
       <c r="N5">
-        <v>6.751436436090379</v>
+        <v>5.837163218402452</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.654696676773861</v>
       </c>
       <c r="P5">
-        <v>13.10114041099265</v>
+        <v>6.915041214324153</v>
       </c>
       <c r="Q5">
-        <v>15.4304135135739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.96742550684416</v>
+      </c>
+      <c r="S5">
+        <v>15.11138417452169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.62734756909715</v>
+        <v>11.4154418790495</v>
       </c>
       <c r="C6">
-        <v>6.441576763578186</v>
+        <v>6.084797052155741</v>
       </c>
       <c r="D6">
-        <v>5.850694833744553</v>
+        <v>5.881602074829171</v>
       </c>
       <c r="E6">
-        <v>8.069065463376464</v>
+        <v>8.003991592950864</v>
       </c>
       <c r="F6">
-        <v>20.8896156478646</v>
+        <v>20.48927331242977</v>
       </c>
       <c r="G6">
-        <v>22.90403038366019</v>
+        <v>21.85305600604065</v>
       </c>
       <c r="H6">
-        <v>2.776074122292485</v>
+        <v>2.663781945463619</v>
       </c>
       <c r="J6">
-        <v>9.534889394779947</v>
+        <v>9.63229606023198</v>
       </c>
       <c r="K6">
-        <v>15.39433408320158</v>
+        <v>14.92073305108994</v>
       </c>
       <c r="L6">
-        <v>5.893213233345004</v>
+        <v>12.53863111489349</v>
       </c>
       <c r="M6">
-        <v>9.597966012456341</v>
+        <v>9.609413365946946</v>
       </c>
       <c r="N6">
-        <v>6.743081543337666</v>
+        <v>5.835978857954043</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.626827821240138</v>
       </c>
       <c r="P6">
-        <v>13.10689150145892</v>
+        <v>6.906674166129599</v>
       </c>
       <c r="Q6">
-        <v>15.43207373411958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.9726308052542</v>
+      </c>
+      <c r="S6">
+        <v>15.11345413412591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88682605615947</v>
+        <v>11.66447129940416</v>
       </c>
       <c r="C7">
-        <v>6.47528353594201</v>
+        <v>6.137621115838172</v>
       </c>
       <c r="D7">
-        <v>5.914501520273292</v>
+        <v>5.948008554509981</v>
       </c>
       <c r="E7">
-        <v>8.112576296147981</v>
+        <v>8.045349303491021</v>
       </c>
       <c r="F7">
-        <v>20.93030979512378</v>
+        <v>20.51445508298708</v>
       </c>
       <c r="G7">
-        <v>22.94288516338504</v>
+        <v>21.94037038518601</v>
       </c>
       <c r="H7">
-        <v>2.719838963478134</v>
+        <v>2.611767627538044</v>
       </c>
       <c r="J7">
-        <v>9.519875380142274</v>
+        <v>9.596633326892036</v>
       </c>
       <c r="K7">
-        <v>15.36320884790029</v>
+        <v>14.88338010357559</v>
       </c>
       <c r="L7">
-        <v>5.90213412251368</v>
+        <v>12.48877387441177</v>
       </c>
       <c r="M7">
-        <v>9.79103004410717</v>
+        <v>9.582738638120942</v>
       </c>
       <c r="N7">
-        <v>6.800860152278769</v>
+        <v>5.843952100485143</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.814840173379679</v>
       </c>
       <c r="P7">
-        <v>13.06716902858889</v>
+        <v>6.964106871408658</v>
       </c>
       <c r="Q7">
-        <v>15.4211827244471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.93683322174159</v>
+      </c>
+      <c r="S7">
+        <v>15.09296910453302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.9703798083515</v>
+        <v>12.75420692170023</v>
       </c>
       <c r="C8">
-        <v>6.620934780111816</v>
+        <v>6.372900781557682</v>
       </c>
       <c r="D8">
-        <v>6.18987928703549</v>
+        <v>6.229031786039924</v>
       </c>
       <c r="E8">
-        <v>8.301845977838525</v>
+        <v>8.223403856067574</v>
       </c>
       <c r="F8">
-        <v>21.13033719159082</v>
+        <v>20.66280319784491</v>
       </c>
       <c r="G8">
-        <v>23.14588616672818</v>
+        <v>22.20909832740581</v>
       </c>
       <c r="H8">
-        <v>2.481160857568141</v>
+        <v>2.389982029163177</v>
       </c>
       <c r="J8">
-        <v>9.460953323620803</v>
+        <v>9.507476079773262</v>
       </c>
       <c r="K8">
-        <v>15.23946122154824</v>
+        <v>14.73841274049229</v>
       </c>
       <c r="L8">
-        <v>5.940384776294085</v>
+        <v>12.28729072879832</v>
       </c>
       <c r="M8">
-        <v>10.59827674595729</v>
+        <v>9.510093930467796</v>
       </c>
       <c r="N8">
-        <v>7.050176742126478</v>
+        <v>5.878444452099755</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.60877368958657</v>
       </c>
       <c r="P8">
-        <v>12.89669721154354</v>
+        <v>7.21384269205791</v>
       </c>
       <c r="Q8">
-        <v>15.38911313347713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.78392510798353</v>
+      </c>
+      <c r="S8">
+        <v>15.0302763509579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.91465446141566</v>
+        <v>14.66077585951908</v>
       </c>
       <c r="C9">
-        <v>6.894434146339065</v>
+        <v>6.825087011055553</v>
       </c>
       <c r="D9">
-        <v>6.703196064448747</v>
+        <v>6.744113413922066</v>
       </c>
       <c r="E9">
-        <v>8.661562081332788</v>
+        <v>8.558466813219418</v>
       </c>
       <c r="F9">
-        <v>21.59700965640182</v>
+        <v>21.05217378539247</v>
       </c>
       <c r="G9">
-        <v>23.66114534387637</v>
+        <v>22.59793948644435</v>
       </c>
       <c r="H9">
-        <v>2.046345130874609</v>
+        <v>1.984573532027668</v>
       </c>
       <c r="J9">
-        <v>9.372964086692141</v>
+        <v>9.453070979147524</v>
       </c>
       <c r="K9">
-        <v>15.0483546597137</v>
+        <v>14.51071277605401</v>
       </c>
       <c r="L9">
-        <v>6.011476602331907</v>
+        <v>11.93755938715563</v>
       </c>
       <c r="M9">
-        <v>12.01744777037569</v>
+        <v>9.530265416330884</v>
       </c>
       <c r="N9">
-        <v>7.515617680226197</v>
+        <v>5.942731567083905</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.01679931020874</v>
       </c>
       <c r="P9">
-        <v>12.57926461942709</v>
+        <v>7.684687891378833</v>
       </c>
       <c r="Q9">
-        <v>15.38688435976034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.50153149566499</v>
+      </c>
+      <c r="S9">
+        <v>14.98360467956016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.19267485268444</v>
+        <v>15.86551454411127</v>
       </c>
       <c r="C10">
-        <v>7.107012513566588</v>
+        <v>7.142117483740941</v>
       </c>
       <c r="D10">
-        <v>7.018101267297648</v>
+        <v>7.074483304025653</v>
       </c>
       <c r="E10">
-        <v>8.832003847125605</v>
+        <v>8.718047973307218</v>
       </c>
       <c r="F10">
-        <v>21.88977159145588</v>
+        <v>21.23803021135029</v>
       </c>
       <c r="G10">
-        <v>23.99423155817771</v>
+        <v>23.26263276904568</v>
       </c>
       <c r="H10">
-        <v>1.776313486001709</v>
+        <v>1.737185827741658</v>
       </c>
       <c r="J10">
-        <v>9.307249751258722</v>
+        <v>9.244392592723539</v>
       </c>
       <c r="K10">
-        <v>14.89843263540157</v>
+        <v>14.30848242581985</v>
       </c>
       <c r="L10">
-        <v>6.039294263687803</v>
+        <v>11.65409943631881</v>
       </c>
       <c r="M10">
-        <v>12.94743182934628</v>
+        <v>9.589444803791867</v>
       </c>
       <c r="N10">
-        <v>7.766745566579639</v>
+        <v>5.966311127459987</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>12.92267012936883</v>
       </c>
       <c r="P10">
-        <v>12.35927023980799</v>
+        <v>7.937648925928508</v>
       </c>
       <c r="Q10">
-        <v>15.37620407524643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.31169890724092</v>
+      </c>
+      <c r="S10">
+        <v>14.90086736831655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.42426125666937</v>
+        <v>16.07673363849159</v>
       </c>
       <c r="C11">
-        <v>7.382155999355926</v>
+        <v>7.420253914438564</v>
       </c>
       <c r="D11">
-        <v>6.78989140725231</v>
+        <v>6.873654102232693</v>
       </c>
       <c r="E11">
-        <v>8.211171267438353</v>
+        <v>8.113701535605294</v>
       </c>
       <c r="F11">
-        <v>21.19909002106019</v>
+        <v>20.46469218163555</v>
       </c>
       <c r="G11">
-        <v>23.12159967949623</v>
+        <v>23.30450906212207</v>
       </c>
       <c r="H11">
-        <v>2.775867797893933</v>
+        <v>2.757154785828188</v>
       </c>
       <c r="J11">
-        <v>9.115177238300701</v>
+        <v>8.783700007822372</v>
       </c>
       <c r="K11">
-        <v>14.46136562468783</v>
+        <v>13.85745822693314</v>
       </c>
       <c r="L11">
-        <v>5.898470893063076</v>
+        <v>11.28131596684641</v>
       </c>
       <c r="M11">
-        <v>13.25379060288172</v>
+        <v>9.318869882136802</v>
       </c>
       <c r="N11">
-        <v>7.25200346168559</v>
+        <v>5.837554059715143</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.19096939374542</v>
       </c>
       <c r="P11">
-        <v>12.2989256955813</v>
+        <v>7.408907106877423</v>
       </c>
       <c r="Q11">
-        <v>14.95380224585787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.2814805120839</v>
+      </c>
+      <c r="S11">
+        <v>14.41947807047165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.35774674901494</v>
+        <v>16.01571003285167</v>
       </c>
       <c r="C12">
-        <v>7.581841371985189</v>
+        <v>7.607105557622959</v>
       </c>
       <c r="D12">
-        <v>6.527964916318123</v>
+        <v>6.622410612477919</v>
       </c>
       <c r="E12">
-        <v>7.713974502791984</v>
+        <v>7.628310185540762</v>
       </c>
       <c r="F12">
-        <v>20.54041876073595</v>
+        <v>19.7938000972605</v>
       </c>
       <c r="G12">
-        <v>22.29420933037905</v>
+        <v>22.91653979696265</v>
       </c>
       <c r="H12">
-        <v>4.158724712189321</v>
+        <v>4.147117665884494</v>
       </c>
       <c r="J12">
-        <v>8.963549717454129</v>
+        <v>8.558920983092708</v>
       </c>
       <c r="K12">
-        <v>14.1226766922417</v>
+        <v>13.5370118906256</v>
       </c>
       <c r="L12">
-        <v>5.827461302084586</v>
+        <v>11.0483181427726</v>
       </c>
       <c r="M12">
-        <v>13.32294024600604</v>
+        <v>9.078947381756162</v>
       </c>
       <c r="N12">
-        <v>6.780922221023887</v>
+        <v>5.778148835198786</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.24294973732474</v>
       </c>
       <c r="P12">
-        <v>12.30349605153472</v>
+        <v>6.926445684546212</v>
       </c>
       <c r="Q12">
-        <v>14.59138383760782</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.30433070557736</v>
+      </c>
+      <c r="S12">
+        <v>14.04965003253086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.05596133582977</v>
+        <v>15.74523939630877</v>
       </c>
       <c r="C13">
-        <v>7.735234948961291</v>
+        <v>7.746200437557908</v>
       </c>
       <c r="D13">
-        <v>6.219323256108187</v>
+        <v>6.306590274873381</v>
       </c>
       <c r="E13">
-        <v>7.292166709101474</v>
+        <v>7.215343717641398</v>
       </c>
       <c r="F13">
-        <v>19.86209041119917</v>
+        <v>19.17597697446547</v>
       </c>
       <c r="G13">
-        <v>21.4437892512171</v>
+        <v>21.97950245622778</v>
       </c>
       <c r="H13">
-        <v>5.583625206401956</v>
+        <v>5.573531079567559</v>
       </c>
       <c r="J13">
-        <v>8.833963956737106</v>
+        <v>8.507289997729046</v>
       </c>
       <c r="K13">
-        <v>13.84071171154294</v>
+        <v>13.30493414160213</v>
       </c>
       <c r="L13">
-        <v>5.805791596524942</v>
+        <v>10.90087420269116</v>
       </c>
       <c r="M13">
-        <v>13.21608246198179</v>
+        <v>8.861200399261005</v>
       </c>
       <c r="N13">
-        <v>6.314277475495154</v>
+        <v>5.767737959364975</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.14075336820725</v>
       </c>
       <c r="P13">
-        <v>12.35505474665076</v>
+        <v>6.450752177243547</v>
       </c>
       <c r="Q13">
-        <v>14.25257396765168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.36097977755453</v>
+      </c>
+      <c r="S13">
+        <v>13.75622991824817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.73368323092362</v>
+        <v>15.45684533026574</v>
       </c>
       <c r="C14">
-        <v>7.822748912544172</v>
+        <v>7.823455726764093</v>
       </c>
       <c r="D14">
-        <v>5.980065747690977</v>
+        <v>6.054768985590673</v>
       </c>
       <c r="E14">
-        <v>7.050180154222868</v>
+        <v>6.979558898095919</v>
       </c>
       <c r="F14">
-        <v>19.37971015916147</v>
+        <v>18.7656858028975</v>
       </c>
       <c r="G14">
-        <v>20.83928169944759</v>
+        <v>21.09239215103227</v>
       </c>
       <c r="H14">
-        <v>6.593123172674218</v>
+        <v>6.582861171209421</v>
       </c>
       <c r="J14">
-        <v>8.754022491803342</v>
+        <v>8.53583833504247</v>
       </c>
       <c r="K14">
-        <v>13.67209322288907</v>
+        <v>13.18219257482071</v>
       </c>
       <c r="L14">
-        <v>5.819760834578644</v>
+        <v>10.83180655518304</v>
       </c>
       <c r="M14">
-        <v>13.06032512055179</v>
+        <v>8.722834085776682</v>
       </c>
       <c r="N14">
-        <v>5.99573524892796</v>
+        <v>5.788873680793473</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>12.99790252554741</v>
       </c>
       <c r="P14">
-        <v>12.41214667391793</v>
+        <v>6.126933694754931</v>
       </c>
       <c r="Q14">
-        <v>14.02792182120278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.41443327755294</v>
+      </c>
+      <c r="S14">
+        <v>13.58419265810382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.60352785786339</v>
+        <v>15.34020648963842</v>
       </c>
       <c r="C15">
-        <v>7.83264007429125</v>
+        <v>7.830842242148524</v>
       </c>
       <c r="D15">
-        <v>5.9119088202138</v>
+        <v>5.980431611767851</v>
       </c>
       <c r="E15">
-        <v>6.999197240743498</v>
+        <v>6.930256946792595</v>
       </c>
       <c r="F15">
-        <v>19.26048083259455</v>
+        <v>18.67636198606287</v>
       </c>
       <c r="G15">
-        <v>20.69054726439952</v>
+        <v>20.78361046503362</v>
       </c>
       <c r="H15">
-        <v>6.828035783674304</v>
+        <v>6.817298563021717</v>
       </c>
       <c r="J15">
-        <v>8.739891124672388</v>
+        <v>8.571699967080161</v>
       </c>
       <c r="K15">
-        <v>13.64383827818186</v>
+        <v>13.1695460103572</v>
       </c>
       <c r="L15">
-        <v>5.826121726829264</v>
+        <v>10.8293262999182</v>
       </c>
       <c r="M15">
-        <v>12.9840831667685</v>
+        <v>8.695600099097971</v>
       </c>
       <c r="N15">
-        <v>5.917276635906927</v>
+        <v>5.796808798808393</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.9289967206396</v>
       </c>
       <c r="P15">
-        <v>12.43440192030301</v>
+        <v>6.047742404394326</v>
       </c>
       <c r="Q15">
-        <v>13.97981300641382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.43273494581148</v>
+      </c>
+      <c r="S15">
+        <v>13.55750157510503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.11840699072114</v>
+        <v>14.90052743957102</v>
       </c>
       <c r="C16">
-        <v>7.71202768776689</v>
+        <v>7.704804421854602</v>
       </c>
       <c r="D16">
-        <v>5.828864655227697</v>
+        <v>5.871800515545138</v>
       </c>
       <c r="E16">
-        <v>7.006893521119248</v>
+        <v>6.938603643595716</v>
       </c>
       <c r="F16">
-        <v>19.2634564486789</v>
+        <v>18.7825369098688</v>
       </c>
       <c r="G16">
-        <v>20.70381129713856</v>
+        <v>20.06108965243818</v>
       </c>
       <c r="H16">
-        <v>6.627834962317812</v>
+        <v>6.612464865731038</v>
       </c>
       <c r="J16">
-        <v>8.794123049933821</v>
+        <v>8.841284757301334</v>
       </c>
       <c r="K16">
-        <v>13.7673244564133</v>
+        <v>13.33095216608353</v>
       </c>
       <c r="L16">
-        <v>5.814744618809794</v>
+        <v>10.96828664900035</v>
       </c>
       <c r="M16">
-        <v>12.61781354705407</v>
+        <v>8.754646513981324</v>
       </c>
       <c r="N16">
-        <v>5.894148409232713</v>
+        <v>5.784568846868472</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.5978980502593</v>
       </c>
       <c r="P16">
-        <v>12.50923057046867</v>
+        <v>6.029812050540509</v>
       </c>
       <c r="Q16">
-        <v>14.05142213165605</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.48238548265199</v>
+      </c>
+      <c r="S16">
+        <v>13.70110128061432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.91871874409017</v>
+        <v>14.71396084475797</v>
       </c>
       <c r="C17">
-        <v>7.570910991505412</v>
+        <v>7.55796761510327</v>
       </c>
       <c r="D17">
-        <v>5.895497582641497</v>
+        <v>5.928723025609368</v>
       </c>
       <c r="E17">
-        <v>7.131808678709207</v>
+        <v>7.059522008812278</v>
       </c>
       <c r="F17">
-        <v>19.52477202924866</v>
+        <v>19.07438346191894</v>
       </c>
       <c r="G17">
-        <v>21.03987402559633</v>
+        <v>20.08578917430342</v>
       </c>
       <c r="H17">
-        <v>5.907232512890473</v>
+        <v>5.887359520101525</v>
       </c>
       <c r="J17">
-        <v>8.878350602473905</v>
+        <v>9.018801221084278</v>
       </c>
       <c r="K17">
-        <v>13.95061656547579</v>
+        <v>13.51674647108502</v>
       </c>
       <c r="L17">
-        <v>5.794483572725245</v>
+        <v>11.11735681394815</v>
       </c>
       <c r="M17">
-        <v>12.41768672601205</v>
+        <v>8.866263040032004</v>
       </c>
       <c r="N17">
-        <v>6.043776251344534</v>
+        <v>5.760126671174475</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.41344437552076</v>
       </c>
       <c r="P17">
-        <v>12.53770406363765</v>
+        <v>6.185618757753438</v>
       </c>
       <c r="Q17">
-        <v>14.22626445746537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.49678125293681</v>
+      </c>
+      <c r="S17">
+        <v>13.89621754929373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.94987993647922</v>
+        <v>14.73595450174998</v>
       </c>
       <c r="C18">
-        <v>7.401201494069166</v>
+        <v>7.388194612687089</v>
       </c>
       <c r="D18">
-        <v>6.099040260787151</v>
+        <v>6.129747589504307</v>
       </c>
       <c r="E18">
-        <v>7.422116398383567</v>
+        <v>7.340502116289079</v>
       </c>
       <c r="F18">
-        <v>20.03442963048957</v>
+        <v>19.57505177033602</v>
       </c>
       <c r="G18">
-        <v>21.68493715575846</v>
+        <v>20.57665281924192</v>
       </c>
       <c r="H18">
-        <v>4.686968290896254</v>
+        <v>4.660939831713894</v>
       </c>
       <c r="J18">
-        <v>8.996941771903309</v>
+        <v>9.170749352886256</v>
       </c>
       <c r="K18">
-        <v>14.20768408991553</v>
+        <v>13.75464198025675</v>
       </c>
       <c r="L18">
-        <v>5.791777687769325</v>
+        <v>11.30154857264685</v>
       </c>
       <c r="M18">
-        <v>12.34331097621018</v>
+        <v>9.036812866828182</v>
       </c>
       <c r="N18">
-        <v>6.377654807258059</v>
+        <v>5.749717148200646</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.34564796343048</v>
       </c>
       <c r="P18">
-        <v>12.53324724180954</v>
+        <v>6.527511442496277</v>
       </c>
       <c r="Q18">
-        <v>14.50740706572058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.48328786224961</v>
+      </c>
+      <c r="S18">
+        <v>14.17002306319914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.16361451952851</v>
+        <v>14.92551221323955</v>
       </c>
       <c r="C19">
-        <v>7.228218066993329</v>
+        <v>7.221112586744363</v>
       </c>
       <c r="D19">
-        <v>6.396256241295939</v>
+        <v>6.428275869058386</v>
       </c>
       <c r="E19">
-        <v>7.889315531581661</v>
+        <v>7.79497452211297</v>
       </c>
       <c r="F19">
-        <v>20.70655641814552</v>
+        <v>20.21420701203022</v>
       </c>
       <c r="G19">
-        <v>22.52940240244745</v>
+        <v>21.34012863766737</v>
       </c>
       <c r="H19">
-        <v>3.264140268508304</v>
+        <v>3.228509581439746</v>
       </c>
       <c r="J19">
-        <v>9.13473442233191</v>
+        <v>9.309051053407998</v>
       </c>
       <c r="K19">
-        <v>14.51083193101237</v>
+        <v>14.02473707408031</v>
       </c>
       <c r="L19">
-        <v>5.843368645549155</v>
+        <v>11.5058571754841</v>
       </c>
       <c r="M19">
-        <v>12.37713327156855</v>
+        <v>9.246949319896485</v>
       </c>
       <c r="N19">
-        <v>6.857230175760863</v>
+        <v>5.790703385956676</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.38080510033212</v>
       </c>
       <c r="P19">
-        <v>12.50737878825477</v>
+        <v>7.01614890649115</v>
       </c>
       <c r="Q19">
-        <v>14.85424181238141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.45117136313593</v>
+      </c>
+      <c r="S19">
+        <v>14.49294222889385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.86554948841682</v>
+        <v>15.56496007171581</v>
       </c>
       <c r="C20">
-        <v>7.052633155732206</v>
+        <v>7.072406545155268</v>
       </c>
       <c r="D20">
-        <v>6.934741416617308</v>
+        <v>6.978334139966972</v>
       </c>
       <c r="E20">
-        <v>8.783821494177111</v>
+        <v>8.669617405180775</v>
       </c>
       <c r="F20">
-        <v>21.80553435323773</v>
+        <v>21.21359703570965</v>
       </c>
       <c r="G20">
-        <v>23.8963085057066</v>
+        <v>22.82450147830609</v>
       </c>
       <c r="H20">
-        <v>1.845180125829866</v>
+        <v>1.798752880093178</v>
       </c>
       <c r="J20">
-        <v>9.322446379812053</v>
+        <v>9.396514470985236</v>
       </c>
       <c r="K20">
-        <v>14.933576266023</v>
+        <v>14.37281079200022</v>
       </c>
       <c r="L20">
-        <v>6.031083912156413</v>
+        <v>11.73608796123279</v>
       </c>
       <c r="M20">
-        <v>12.70954050774827</v>
+        <v>9.579023385860879</v>
       </c>
       <c r="N20">
-        <v>7.69841263229929</v>
+        <v>5.959807029272033</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.70138621542081</v>
       </c>
       <c r="P20">
-        <v>12.4164068081607</v>
+        <v>7.870145190951083</v>
       </c>
       <c r="Q20">
-        <v>15.37411064920983</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.3592805263984</v>
+      </c>
+      <c r="S20">
+        <v>14.94171494232884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.85489141666906</v>
+        <v>16.45572436709505</v>
       </c>
       <c r="C21">
-        <v>7.182221726057919</v>
+        <v>7.221457399868942</v>
       </c>
       <c r="D21">
-        <v>7.235537083316252</v>
+        <v>7.337070895549981</v>
       </c>
       <c r="E21">
-        <v>9.044350550334844</v>
+        <v>8.936737581528494</v>
       </c>
       <c r="F21">
-        <v>22.19325700284917</v>
+        <v>21.34403087637229</v>
       </c>
       <c r="G21">
-        <v>24.36123593935324</v>
+        <v>24.89462700410756</v>
       </c>
       <c r="H21">
-        <v>1.599547838652476</v>
+        <v>1.57724200760413</v>
       </c>
       <c r="J21">
-        <v>9.307499389374829</v>
+        <v>8.793537502087382</v>
       </c>
       <c r="K21">
-        <v>14.89746877355009</v>
+        <v>14.20654122357459</v>
       </c>
       <c r="L21">
-        <v>6.086069764281056</v>
+        <v>11.51407198346478</v>
       </c>
       <c r="M21">
-        <v>13.40811917815902</v>
+        <v>9.634135252644695</v>
       </c>
       <c r="N21">
-        <v>8.000203465941807</v>
+        <v>6.006242711433047</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.32886255077796</v>
       </c>
       <c r="P21">
-        <v>12.24550350989706</v>
+        <v>8.16822894255921</v>
       </c>
       <c r="Q21">
-        <v>15.45506742365343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.21916555619377</v>
+      </c>
+      <c r="S21">
+        <v>14.83387875414736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.45424800625232</v>
+        <v>16.99263469845637</v>
       </c>
       <c r="C22">
-        <v>7.275341638477636</v>
+        <v>7.322534810699599</v>
       </c>
       <c r="D22">
-        <v>7.405880098853535</v>
+        <v>7.548012928512322</v>
       </c>
       <c r="E22">
-        <v>9.168897015130813</v>
+        <v>9.06858383150786</v>
       </c>
       <c r="F22">
-        <v>22.40594399125053</v>
+        <v>21.37722891197128</v>
       </c>
       <c r="G22">
-        <v>24.61789646072135</v>
+        <v>26.33760961875714</v>
       </c>
       <c r="H22">
-        <v>1.662360862740182</v>
+        <v>1.669224822622794</v>
       </c>
       <c r="J22">
-        <v>9.291678107112485</v>
+        <v>8.431967650705628</v>
       </c>
       <c r="K22">
-        <v>14.85872972265314</v>
+        <v>14.07633632701404</v>
       </c>
       <c r="L22">
-        <v>6.110268025624731</v>
+        <v>11.35717550789122</v>
       </c>
       <c r="M22">
-        <v>13.84028370547653</v>
+        <v>9.661275383706574</v>
       </c>
       <c r="N22">
-        <v>8.155744452763443</v>
+        <v>6.025804686907482</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.71297853931194</v>
       </c>
       <c r="P22">
-        <v>12.13711031907718</v>
+        <v>8.320551304898073</v>
       </c>
       <c r="Q22">
-        <v>15.49112913395197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.13379317385401</v>
+      </c>
+      <c r="S22">
+        <v>14.73593583226584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.13691207699094</v>
+        <v>16.71372391375678</v>
       </c>
       <c r="C23">
-        <v>7.225799808224996</v>
+        <v>7.27676350237839</v>
       </c>
       <c r="D23">
-        <v>7.315372103762788</v>
+        <v>7.429484954082341</v>
       </c>
       <c r="E23">
-        <v>9.102599838711429</v>
+        <v>8.995818237216618</v>
       </c>
       <c r="F23">
-        <v>22.29166920228698</v>
+        <v>21.3820666759537</v>
       </c>
       <c r="G23">
-        <v>24.47962639091665</v>
+        <v>25.36973704899244</v>
       </c>
       <c r="H23">
-        <v>1.588014111958763</v>
+        <v>1.603602166967699</v>
       </c>
       <c r="J23">
-        <v>9.299781642798527</v>
+        <v>8.671060428532206</v>
       </c>
       <c r="K23">
-        <v>14.87874491559777</v>
+        <v>14.15659876871483</v>
       </c>
       <c r="L23">
-        <v>6.09738777633326</v>
+        <v>11.44763657138835</v>
       </c>
       <c r="M23">
-        <v>13.6113354540176</v>
+        <v>9.655451330037176</v>
       </c>
       <c r="N23">
-        <v>8.073071521294214</v>
+        <v>6.015710582348146</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.51674922082881</v>
       </c>
       <c r="P23">
-        <v>12.19481205723126</v>
+        <v>8.240583907998019</v>
       </c>
       <c r="Q23">
-        <v>15.47112563019171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.17776306068093</v>
+      </c>
+      <c r="S23">
+        <v>14.8053492570411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.8787903033476</v>
+        <v>15.57643829153348</v>
       </c>
       <c r="C24">
-        <v>7.034758120098718</v>
+        <v>7.054057414741441</v>
       </c>
       <c r="D24">
-        <v>6.963855218466941</v>
+        <v>7.007222815279405</v>
       </c>
       <c r="E24">
-        <v>8.847762011452348</v>
+        <v>8.7323106817463</v>
       </c>
       <c r="F24">
-        <v>21.87560314642443</v>
+        <v>21.28170841909868</v>
       </c>
       <c r="G24">
-        <v>23.98409470101575</v>
+        <v>22.89410013891298</v>
       </c>
       <c r="H24">
-        <v>1.827558118839373</v>
+        <v>1.780952403416775</v>
       </c>
       <c r="J24">
-        <v>9.337818608876958</v>
+        <v>9.415643969818683</v>
       </c>
       <c r="K24">
-        <v>14.96875186866412</v>
+        <v>14.40500517642596</v>
       </c>
       <c r="L24">
-        <v>6.047830440423091</v>
+        <v>11.7615092332772</v>
       </c>
       <c r="M24">
-        <v>12.70676579270838</v>
+        <v>9.602321907614833</v>
       </c>
       <c r="N24">
-        <v>7.752617718659768</v>
+        <v>5.975323449050054</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.69918932734917</v>
       </c>
       <c r="P24">
-        <v>12.41667952974084</v>
+        <v>7.925314519322013</v>
       </c>
       <c r="Q24">
-        <v>15.41170494517911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.35837788699433</v>
+      </c>
+      <c r="S24">
+        <v>14.97782352890862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.40025049450152</v>
+        <v>14.17486453858991</v>
       </c>
       <c r="C25">
-        <v>6.821830996621085</v>
+        <v>6.71005983813757</v>
       </c>
       <c r="D25">
-        <v>6.567561271782527</v>
+        <v>6.604263970735455</v>
       </c>
       <c r="E25">
-        <v>8.565616546978241</v>
+        <v>8.467850030079784</v>
       </c>
       <c r="F25">
-        <v>21.46273074441831</v>
+        <v>20.95241916315723</v>
       </c>
       <c r="G25">
-        <v>23.50889485135789</v>
+        <v>22.37746334738467</v>
       </c>
       <c r="H25">
-        <v>2.160498943805194</v>
+        <v>2.090354067741785</v>
       </c>
       <c r="J25">
-        <v>9.393699283834597</v>
+        <v>9.507121854912818</v>
       </c>
       <c r="K25">
-        <v>15.09427082622268</v>
+        <v>14.57360593092723</v>
       </c>
       <c r="L25">
-        <v>5.99265435222966</v>
+        <v>12.03372930973035</v>
       </c>
       <c r="M25">
-        <v>11.65127443611374</v>
+        <v>9.512351729999631</v>
       </c>
       <c r="N25">
-        <v>7.392486538016926</v>
+        <v>5.926005569010333</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.65797916863293</v>
       </c>
       <c r="P25">
-        <v>12.66337777208321</v>
+        <v>7.560425777178144</v>
       </c>
       <c r="Q25">
-        <v>15.38069109124683</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.57558131478704</v>
+      </c>
+      <c r="S25">
+        <v>14.99976626722418</v>
       </c>
     </row>
   </sheetData>
